--- a/Mythink/public/uploads/excle/compresult.xlsx
+++ b/Mythink/public/uploads/excle/compresult.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="877">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="856">
   <si>
     <t>登记号码</t>
   </si>
@@ -2387,39 +2387,6 @@
     <t>14:30:48</t>
   </si>
   <si>
-    <t>褚应平</t>
-  </si>
-  <si>
-    <t>08:11</t>
-  </si>
-  <si>
-    <t>18:23</t>
-  </si>
-  <si>
-    <t>物控中心</t>
-  </si>
-  <si>
-    <t>08:08</t>
-  </si>
-  <si>
-    <t>22:47</t>
-  </si>
-  <si>
-    <t>08:18</t>
-  </si>
-  <si>
-    <t>00:53</t>
-  </si>
-  <si>
-    <t>22:16</t>
-  </si>
-  <si>
-    <t>08:10</t>
-  </si>
-  <si>
-    <t>20:57</t>
-  </si>
-  <si>
     <t>陈俊安</t>
   </si>
   <si>
@@ -2571,36 +2538,6 @@
   </si>
   <si>
     <t>18:51:26</t>
-  </si>
-  <si>
-    <t>莫国锋</t>
-  </si>
-  <si>
-    <t>08:21</t>
-  </si>
-  <si>
-    <t>19:08</t>
-  </si>
-  <si>
-    <t>08:16</t>
-  </si>
-  <si>
-    <t>19:15</t>
-  </si>
-  <si>
-    <t>20:41</t>
-  </si>
-  <si>
-    <t>08:15</t>
-  </si>
-  <si>
-    <t>20:22</t>
-  </si>
-  <si>
-    <t>08:01</t>
-  </si>
-  <si>
-    <t>20:27</t>
   </si>
   <si>
     <t>阮昱臻</t>
@@ -2984,7 +2921,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:K432"/>
+  <dimension ref="A1:K422"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -3132,7 +3069,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>1090</v>
+        <v>0</v>
       </c>
       <c r="K5" t="s">
         <v>17</v>
@@ -15682,7 +15619,7 @@
     </row>
     <row r="388" spans="1:11">
       <c r="A388">
-        <v>1063</v>
+        <v>1214</v>
       </c>
       <c r="B388" t="s">
         <v>790</v>
@@ -15707,7 +15644,7 @@
         <v>0</v>
       </c>
       <c r="J388">
-        <v>7</v>
+        <v>494</v>
       </c>
       <c r="K388" t="s">
         <v>793</v>
@@ -15715,7 +15652,7 @@
     </row>
     <row r="389" spans="1:11">
       <c r="A389">
-        <v>1063</v>
+        <v>1214</v>
       </c>
       <c r="B389" t="s">
         <v>790</v>
@@ -15737,10 +15674,10 @@
         <v>795</v>
       </c>
       <c r="I389">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J389">
-        <v>0</v>
+        <v>546</v>
       </c>
       <c r="K389" t="s">
         <v>793</v>
@@ -15748,7 +15685,7 @@
     </row>
     <row r="390" spans="1:11">
       <c r="A390">
-        <v>1063</v>
+        <v>1214</v>
       </c>
       <c r="B390" t="s">
         <v>790</v>
@@ -15770,10 +15707,10 @@
         <v>797</v>
       </c>
       <c r="I390">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J390">
-        <v>1057</v>
+        <v>0</v>
       </c>
       <c r="K390" t="s">
         <v>793</v>
@@ -15781,7 +15718,7 @@
     </row>
     <row r="391" spans="1:11">
       <c r="A391">
-        <v>1063</v>
+        <v>1214</v>
       </c>
       <c r="B391" t="s">
         <v>790</v>
@@ -15796,15 +15733,17 @@
       <c r="F391" t="s">
         <v>118</v>
       </c>
-      <c r="G391"/>
+      <c r="G391" t="s">
+        <v>798</v>
+      </c>
       <c r="H391" t="s">
-        <v>798</v>
-      </c>
-      <c r="I391" t="s">
-        <v>11</v>
+        <v>799</v>
+      </c>
+      <c r="I391">
+        <v>0</v>
       </c>
       <c r="J391">
-        <v>0</v>
+        <v>278</v>
       </c>
       <c r="K391" t="s">
         <v>793</v>
@@ -15812,7 +15751,7 @@
     </row>
     <row r="392" spans="1:11">
       <c r="A392">
-        <v>1063</v>
+        <v>1214</v>
       </c>
       <c r="B392" t="s">
         <v>790</v>
@@ -15828,16 +15767,16 @@
         <v>118</v>
       </c>
       <c r="G392" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="H392" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="I392">
-        <v>0</v>
+        <v>113</v>
       </c>
       <c r="J392">
-        <v>0</v>
+        <v>356</v>
       </c>
       <c r="K392" t="s">
         <v>793</v>
@@ -15845,10 +15784,10 @@
     </row>
     <row r="393" spans="1:11">
       <c r="A393">
-        <v>1214</v>
+        <v>1321</v>
       </c>
       <c r="B393" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="C393" t="s">
         <v>13</v>
@@ -15861,27 +15800,27 @@
         <v>118</v>
       </c>
       <c r="G393" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="H393" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="I393">
         <v>0</v>
       </c>
       <c r="J393">
-        <v>494</v>
+        <v>0</v>
       </c>
       <c r="K393" t="s">
-        <v>804</v>
+        <v>793</v>
       </c>
     </row>
     <row r="394" spans="1:11">
       <c r="A394">
-        <v>1214</v>
+        <v>1321</v>
       </c>
       <c r="B394" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="C394" t="s">
         <v>18</v>
@@ -15900,21 +15839,21 @@
         <v>806</v>
       </c>
       <c r="I394">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="J394">
-        <v>546</v>
+        <v>0</v>
       </c>
       <c r="K394" t="s">
-        <v>804</v>
+        <v>793</v>
       </c>
     </row>
     <row r="395" spans="1:11">
       <c r="A395">
-        <v>1214</v>
+        <v>1321</v>
       </c>
       <c r="B395" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="C395" t="s">
         <v>21</v>
@@ -15927,27 +15866,27 @@
         <v>118</v>
       </c>
       <c r="G395" t="s">
-        <v>807</v>
+        <v>781</v>
       </c>
       <c r="H395" t="s">
-        <v>808</v>
+        <v>229</v>
       </c>
       <c r="I395">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J395">
         <v>0</v>
       </c>
       <c r="K395" t="s">
-        <v>804</v>
+        <v>793</v>
       </c>
     </row>
     <row r="396" spans="1:11">
       <c r="A396">
-        <v>1214</v>
+        <v>1321</v>
       </c>
       <c r="B396" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="C396" t="s">
         <v>24</v>
@@ -15960,27 +15899,27 @@
         <v>118</v>
       </c>
       <c r="G396" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="H396" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="I396">
         <v>0</v>
       </c>
       <c r="J396">
-        <v>278</v>
+        <v>0</v>
       </c>
       <c r="K396" t="s">
-        <v>804</v>
+        <v>793</v>
       </c>
     </row>
     <row r="397" spans="1:11">
       <c r="A397">
-        <v>1214</v>
+        <v>1321</v>
       </c>
       <c r="B397" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="C397" t="s">
         <v>27</v>
@@ -15993,27 +15932,27 @@
         <v>118</v>
       </c>
       <c r="G397" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="H397" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="I397">
-        <v>113</v>
+        <v>0</v>
       </c>
       <c r="J397">
-        <v>356</v>
+        <v>175</v>
       </c>
       <c r="K397" t="s">
-        <v>804</v>
+        <v>793</v>
       </c>
     </row>
     <row r="398" spans="1:11">
       <c r="A398">
-        <v>1321</v>
+        <v>1425</v>
       </c>
       <c r="B398" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="C398" t="s">
         <v>13</v>
@@ -16026,10 +15965,10 @@
         <v>118</v>
       </c>
       <c r="G398" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="H398" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="I398">
         <v>0</v>
@@ -16038,15 +15977,15 @@
         <v>0</v>
       </c>
       <c r="K398" t="s">
-        <v>804</v>
+        <v>793</v>
       </c>
     </row>
     <row r="399" spans="1:11">
       <c r="A399">
-        <v>1321</v>
+        <v>1425</v>
       </c>
       <c r="B399" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="C399" t="s">
         <v>18</v>
@@ -16059,10 +15998,10 @@
         <v>118</v>
       </c>
       <c r="G399" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="H399" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="I399">
         <v>0</v>
@@ -16071,15 +16010,15 @@
         <v>0</v>
       </c>
       <c r="K399" t="s">
-        <v>804</v>
+        <v>793</v>
       </c>
     </row>
     <row r="400" spans="1:11">
       <c r="A400">
-        <v>1321</v>
+        <v>1425</v>
       </c>
       <c r="B400" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="C400" t="s">
         <v>21</v>
@@ -16092,10 +16031,10 @@
         <v>118</v>
       </c>
       <c r="G400" t="s">
-        <v>781</v>
+        <v>812</v>
       </c>
       <c r="H400" t="s">
-        <v>229</v>
+        <v>816</v>
       </c>
       <c r="I400">
         <v>0</v>
@@ -16104,15 +16043,15 @@
         <v>0</v>
       </c>
       <c r="K400" t="s">
-        <v>804</v>
+        <v>793</v>
       </c>
     </row>
     <row r="401" spans="1:11">
       <c r="A401">
-        <v>1321</v>
+        <v>1425</v>
       </c>
       <c r="B401" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="C401" t="s">
         <v>24</v>
@@ -16125,11 +16064,11 @@
         <v>118</v>
       </c>
       <c r="G401" t="s">
+        <v>817</v>
+      </c>
+      <c r="H401" t="s">
         <v>818</v>
       </c>
-      <c r="H401" t="s">
-        <v>819</v>
-      </c>
       <c r="I401">
         <v>0</v>
       </c>
@@ -16137,15 +16076,15 @@
         <v>0</v>
       </c>
       <c r="K401" t="s">
-        <v>804</v>
+        <v>793</v>
       </c>
     </row>
     <row r="402" spans="1:11">
       <c r="A402">
-        <v>1321</v>
+        <v>1425</v>
       </c>
       <c r="B402" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="C402" t="s">
         <v>27</v>
@@ -16158,27 +16097,27 @@
         <v>118</v>
       </c>
       <c r="G402" t="s">
+        <v>819</v>
+      </c>
+      <c r="H402" t="s">
         <v>820</v>
       </c>
-      <c r="H402" t="s">
-        <v>821</v>
-      </c>
       <c r="I402">
         <v>0</v>
       </c>
       <c r="J402">
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="K402" t="s">
-        <v>804</v>
+        <v>793</v>
       </c>
     </row>
     <row r="403" spans="1:11">
       <c r="A403">
-        <v>1425</v>
+        <v>1463</v>
       </c>
       <c r="B403" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C403" t="s">
         <v>13</v>
@@ -16191,27 +16130,27 @@
         <v>118</v>
       </c>
       <c r="G403" t="s">
+        <v>822</v>
+      </c>
+      <c r="H403" t="s">
         <v>823</v>
       </c>
-      <c r="H403" t="s">
-        <v>824</v>
-      </c>
       <c r="I403">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="J403">
         <v>0</v>
       </c>
       <c r="K403" t="s">
-        <v>804</v>
+        <v>793</v>
       </c>
     </row>
     <row r="404" spans="1:11">
       <c r="A404">
-        <v>1425</v>
+        <v>1463</v>
       </c>
       <c r="B404" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C404" t="s">
         <v>18</v>
@@ -16224,27 +16163,27 @@
         <v>118</v>
       </c>
       <c r="G404" t="s">
+        <v>824</v>
+      </c>
+      <c r="H404" t="s">
         <v>825</v>
       </c>
-      <c r="H404" t="s">
-        <v>826</v>
-      </c>
       <c r="I404">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J404">
         <v>0</v>
       </c>
       <c r="K404" t="s">
-        <v>804</v>
+        <v>793</v>
       </c>
     </row>
     <row r="405" spans="1:11">
       <c r="A405">
-        <v>1425</v>
+        <v>1463</v>
       </c>
       <c r="B405" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C405" t="s">
         <v>21</v>
@@ -16257,7 +16196,7 @@
         <v>118</v>
       </c>
       <c r="G405" t="s">
-        <v>823</v>
+        <v>826</v>
       </c>
       <c r="H405" t="s">
         <v>827</v>
@@ -16269,15 +16208,15 @@
         <v>0</v>
       </c>
       <c r="K405" t="s">
-        <v>804</v>
+        <v>793</v>
       </c>
     </row>
     <row r="406" spans="1:11">
       <c r="A406">
-        <v>1425</v>
+        <v>1463</v>
       </c>
       <c r="B406" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C406" t="s">
         <v>24</v>
@@ -16299,18 +16238,18 @@
         <v>0</v>
       </c>
       <c r="J406">
-        <v>0</v>
+        <v>539</v>
       </c>
       <c r="K406" t="s">
-        <v>804</v>
+        <v>793</v>
       </c>
     </row>
     <row r="407" spans="1:11">
       <c r="A407">
-        <v>1425</v>
+        <v>1463</v>
       </c>
       <c r="B407" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C407" t="s">
         <v>27</v>
@@ -16329,18 +16268,18 @@
         <v>831</v>
       </c>
       <c r="I407">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J407">
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="K407" t="s">
-        <v>804</v>
+        <v>793</v>
       </c>
     </row>
     <row r="408" spans="1:11">
       <c r="A408">
-        <v>1463</v>
+        <v>1496</v>
       </c>
       <c r="B408" t="s">
         <v>832</v>
@@ -16362,18 +16301,18 @@
         <v>834</v>
       </c>
       <c r="I408">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="J408">
         <v>0</v>
       </c>
       <c r="K408" t="s">
-        <v>804</v>
+        <v>793</v>
       </c>
     </row>
     <row r="409" spans="1:11">
       <c r="A409">
-        <v>1463</v>
+        <v>1496</v>
       </c>
       <c r="B409" t="s">
         <v>832</v>
@@ -16392,21 +16331,21 @@
         <v>835</v>
       </c>
       <c r="H409" t="s">
-        <v>836</v>
+        <v>176</v>
       </c>
       <c r="I409">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J409">
         <v>0</v>
       </c>
       <c r="K409" t="s">
-        <v>804</v>
+        <v>793</v>
       </c>
     </row>
     <row r="410" spans="1:11">
       <c r="A410">
-        <v>1463</v>
+        <v>1496</v>
       </c>
       <c r="B410" t="s">
         <v>832</v>
@@ -16422,11 +16361,11 @@
         <v>118</v>
       </c>
       <c r="G410" t="s">
+        <v>836</v>
+      </c>
+      <c r="H410" t="s">
         <v>837</v>
       </c>
-      <c r="H410" t="s">
-        <v>838</v>
-      </c>
       <c r="I410">
         <v>0</v>
       </c>
@@ -16434,12 +16373,12 @@
         <v>0</v>
       </c>
       <c r="K410" t="s">
-        <v>804</v>
+        <v>793</v>
       </c>
     </row>
     <row r="411" spans="1:11">
       <c r="A411">
-        <v>1463</v>
+        <v>1496</v>
       </c>
       <c r="B411" t="s">
         <v>832</v>
@@ -16455,24 +16394,24 @@
         <v>118</v>
       </c>
       <c r="G411" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="H411" t="s">
-        <v>840</v>
+        <v>302</v>
       </c>
       <c r="I411">
         <v>0</v>
       </c>
       <c r="J411">
-        <v>539</v>
+        <v>0</v>
       </c>
       <c r="K411" t="s">
-        <v>804</v>
+        <v>793</v>
       </c>
     </row>
     <row r="412" spans="1:11">
       <c r="A412">
-        <v>1463</v>
+        <v>1496</v>
       </c>
       <c r="B412" t="s">
         <v>832</v>
@@ -16488,27 +16427,27 @@
         <v>118</v>
       </c>
       <c r="G412" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="H412" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="I412">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J412">
-        <v>107</v>
+        <v>0</v>
       </c>
       <c r="K412" t="s">
-        <v>804</v>
+        <v>793</v>
       </c>
     </row>
     <row r="413" spans="1:11">
       <c r="A413">
-        <v>1496</v>
+        <v>1470</v>
       </c>
       <c r="B413" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="C413" t="s">
         <v>13</v>
@@ -16521,27 +16460,27 @@
         <v>118</v>
       </c>
       <c r="G413" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="H413" t="s">
-        <v>845</v>
+        <v>554</v>
       </c>
       <c r="I413">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J413">
         <v>0</v>
       </c>
       <c r="K413" t="s">
-        <v>804</v>
+        <v>843</v>
       </c>
     </row>
     <row r="414" spans="1:11">
       <c r="A414">
-        <v>1496</v>
+        <v>1470</v>
       </c>
       <c r="B414" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="C414" t="s">
         <v>18</v>
@@ -16554,10 +16493,10 @@
         <v>118</v>
       </c>
       <c r="G414" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="H414" t="s">
-        <v>176</v>
+        <v>845</v>
       </c>
       <c r="I414">
         <v>0</v>
@@ -16566,15 +16505,15 @@
         <v>0</v>
       </c>
       <c r="K414" t="s">
-        <v>804</v>
+        <v>843</v>
       </c>
     </row>
     <row r="415" spans="1:11">
       <c r="A415">
-        <v>1496</v>
+        <v>1470</v>
       </c>
       <c r="B415" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="C415" t="s">
         <v>21</v>
@@ -16587,10 +16526,10 @@
         <v>118</v>
       </c>
       <c r="G415" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="H415" t="s">
-        <v>848</v>
+        <v>209</v>
       </c>
       <c r="I415">
         <v>0</v>
@@ -16599,15 +16538,15 @@
         <v>0</v>
       </c>
       <c r="K415" t="s">
-        <v>804</v>
+        <v>843</v>
       </c>
     </row>
     <row r="416" spans="1:11">
       <c r="A416">
-        <v>1496</v>
+        <v>1470</v>
       </c>
       <c r="B416" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="C416" t="s">
         <v>24</v>
@@ -16620,10 +16559,10 @@
         <v>118</v>
       </c>
       <c r="G416" t="s">
-        <v>849</v>
+        <v>689</v>
       </c>
       <c r="H416" t="s">
-        <v>302</v>
+        <v>847</v>
       </c>
       <c r="I416">
         <v>0</v>
@@ -16632,15 +16571,15 @@
         <v>0</v>
       </c>
       <c r="K416" t="s">
-        <v>804</v>
+        <v>843</v>
       </c>
     </row>
     <row r="417" spans="1:11">
       <c r="A417">
-        <v>1496</v>
+        <v>1470</v>
       </c>
       <c r="B417" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="C417" t="s">
         <v>27</v>
@@ -16653,10 +16592,10 @@
         <v>118</v>
       </c>
       <c r="G417" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="H417" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="I417">
         <v>0</v>
@@ -16665,15 +16604,15 @@
         <v>0</v>
       </c>
       <c r="K417" t="s">
-        <v>804</v>
+        <v>843</v>
       </c>
     </row>
     <row r="418" spans="1:11">
       <c r="A418">
-        <v>10012</v>
+        <v>1491</v>
       </c>
       <c r="B418" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="C418" t="s">
         <v>13</v>
@@ -16686,10 +16625,10 @@
         <v>118</v>
       </c>
       <c r="G418" t="s">
-        <v>853</v>
+        <v>211</v>
       </c>
       <c r="H418" t="s">
-        <v>854</v>
+        <v>421</v>
       </c>
       <c r="I418">
         <v>0</v>
@@ -16698,15 +16637,15 @@
         <v>0</v>
       </c>
       <c r="K418" t="s">
-        <v>675</v>
+        <v>843</v>
       </c>
     </row>
     <row r="419" spans="1:11">
       <c r="A419">
-        <v>10012</v>
+        <v>1491</v>
       </c>
       <c r="B419" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="C419" t="s">
         <v>18</v>
@@ -16719,10 +16658,10 @@
         <v>118</v>
       </c>
       <c r="G419" t="s">
-        <v>855</v>
+        <v>851</v>
       </c>
       <c r="H419" t="s">
-        <v>856</v>
+        <v>345</v>
       </c>
       <c r="I419">
         <v>0</v>
@@ -16731,15 +16670,15 @@
         <v>0</v>
       </c>
       <c r="K419" t="s">
-        <v>675</v>
+        <v>843</v>
       </c>
     </row>
     <row r="420" spans="1:11">
       <c r="A420">
-        <v>10012</v>
+        <v>1491</v>
       </c>
       <c r="B420" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="C420" t="s">
         <v>21</v>
@@ -16752,10 +16691,10 @@
         <v>118</v>
       </c>
       <c r="G420" t="s">
-        <v>853</v>
+        <v>126</v>
       </c>
       <c r="H420" t="s">
-        <v>857</v>
+        <v>852</v>
       </c>
       <c r="I420">
         <v>0</v>
@@ -16764,15 +16703,15 @@
         <v>0</v>
       </c>
       <c r="K420" t="s">
-        <v>675</v>
+        <v>843</v>
       </c>
     </row>
     <row r="421" spans="1:11">
       <c r="A421">
-        <v>10012</v>
+        <v>1491</v>
       </c>
       <c r="B421" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="C421" t="s">
         <v>24</v>
@@ -16785,10 +16724,10 @@
         <v>118</v>
       </c>
       <c r="G421" t="s">
-        <v>858</v>
+        <v>853</v>
       </c>
       <c r="H421" t="s">
-        <v>859</v>
+        <v>847</v>
       </c>
       <c r="I421">
         <v>0</v>
@@ -16797,15 +16736,15 @@
         <v>0</v>
       </c>
       <c r="K421" t="s">
-        <v>675</v>
+        <v>843</v>
       </c>
     </row>
     <row r="422" spans="1:11">
       <c r="A422">
-        <v>10012</v>
+        <v>1491</v>
       </c>
       <c r="B422" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="C422" t="s">
         <v>27</v>
@@ -16818,10 +16757,10 @@
         <v>118</v>
       </c>
       <c r="G422" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="H422" t="s">
-        <v>861</v>
+        <v>855</v>
       </c>
       <c r="I422">
         <v>0</v>
@@ -16830,337 +16769,7 @@
         <v>0</v>
       </c>
       <c r="K422" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="423" spans="1:11">
-      <c r="A423">
-        <v>1470</v>
-      </c>
-      <c r="B423" t="s">
-        <v>862</v>
-      </c>
-      <c r="C423" t="s">
-        <v>13</v>
-      </c>
-      <c r="D423"/>
-      <c r="E423" t="s">
-        <v>72</v>
-      </c>
-      <c r="F423" t="s">
-        <v>118</v>
-      </c>
-      <c r="G423" t="s">
-        <v>863</v>
-      </c>
-      <c r="H423" t="s">
-        <v>554</v>
-      </c>
-      <c r="I423">
-        <v>4</v>
-      </c>
-      <c r="J423">
-        <v>0</v>
-      </c>
-      <c r="K423" t="s">
-        <v>864</v>
-      </c>
-    </row>
-    <row r="424" spans="1:11">
-      <c r="A424">
-        <v>1470</v>
-      </c>
-      <c r="B424" t="s">
-        <v>862</v>
-      </c>
-      <c r="C424" t="s">
-        <v>18</v>
-      </c>
-      <c r="D424"/>
-      <c r="E424" t="s">
-        <v>72</v>
-      </c>
-      <c r="F424" t="s">
-        <v>118</v>
-      </c>
-      <c r="G424" t="s">
-        <v>865</v>
-      </c>
-      <c r="H424" t="s">
-        <v>866</v>
-      </c>
-      <c r="I424">
-        <v>0</v>
-      </c>
-      <c r="J424">
-        <v>0</v>
-      </c>
-      <c r="K424" t="s">
-        <v>864</v>
-      </c>
-    </row>
-    <row r="425" spans="1:11">
-      <c r="A425">
-        <v>1470</v>
-      </c>
-      <c r="B425" t="s">
-        <v>862</v>
-      </c>
-      <c r="C425" t="s">
-        <v>21</v>
-      </c>
-      <c r="D425"/>
-      <c r="E425" t="s">
-        <v>72</v>
-      </c>
-      <c r="F425" t="s">
-        <v>118</v>
-      </c>
-      <c r="G425" t="s">
-        <v>867</v>
-      </c>
-      <c r="H425" t="s">
-        <v>209</v>
-      </c>
-      <c r="I425">
-        <v>0</v>
-      </c>
-      <c r="J425">
-        <v>0</v>
-      </c>
-      <c r="K425" t="s">
-        <v>864</v>
-      </c>
-    </row>
-    <row r="426" spans="1:11">
-      <c r="A426">
-        <v>1470</v>
-      </c>
-      <c r="B426" t="s">
-        <v>862</v>
-      </c>
-      <c r="C426" t="s">
-        <v>24</v>
-      </c>
-      <c r="D426"/>
-      <c r="E426" t="s">
-        <v>72</v>
-      </c>
-      <c r="F426" t="s">
-        <v>118</v>
-      </c>
-      <c r="G426" t="s">
-        <v>689</v>
-      </c>
-      <c r="H426" t="s">
-        <v>868</v>
-      </c>
-      <c r="I426">
-        <v>0</v>
-      </c>
-      <c r="J426">
-        <v>0</v>
-      </c>
-      <c r="K426" t="s">
-        <v>864</v>
-      </c>
-    </row>
-    <row r="427" spans="1:11">
-      <c r="A427">
-        <v>1470</v>
-      </c>
-      <c r="B427" t="s">
-        <v>862</v>
-      </c>
-      <c r="C427" t="s">
-        <v>27</v>
-      </c>
-      <c r="D427"/>
-      <c r="E427" t="s">
-        <v>72</v>
-      </c>
-      <c r="F427" t="s">
-        <v>118</v>
-      </c>
-      <c r="G427" t="s">
-        <v>869</v>
-      </c>
-      <c r="H427" t="s">
-        <v>870</v>
-      </c>
-      <c r="I427">
-        <v>0</v>
-      </c>
-      <c r="J427">
-        <v>0</v>
-      </c>
-      <c r="K427" t="s">
-        <v>864</v>
-      </c>
-    </row>
-    <row r="428" spans="1:11">
-      <c r="A428">
-        <v>1491</v>
-      </c>
-      <c r="B428" t="s">
-        <v>871</v>
-      </c>
-      <c r="C428" t="s">
-        <v>13</v>
-      </c>
-      <c r="D428"/>
-      <c r="E428" t="s">
-        <v>72</v>
-      </c>
-      <c r="F428" t="s">
-        <v>118</v>
-      </c>
-      <c r="G428" t="s">
-        <v>211</v>
-      </c>
-      <c r="H428" t="s">
-        <v>421</v>
-      </c>
-      <c r="I428">
-        <v>0</v>
-      </c>
-      <c r="J428">
-        <v>0</v>
-      </c>
-      <c r="K428" t="s">
-        <v>864</v>
-      </c>
-    </row>
-    <row r="429" spans="1:11">
-      <c r="A429">
-        <v>1491</v>
-      </c>
-      <c r="B429" t="s">
-        <v>871</v>
-      </c>
-      <c r="C429" t="s">
-        <v>18</v>
-      </c>
-      <c r="D429"/>
-      <c r="E429" t="s">
-        <v>72</v>
-      </c>
-      <c r="F429" t="s">
-        <v>118</v>
-      </c>
-      <c r="G429" t="s">
-        <v>872</v>
-      </c>
-      <c r="H429" t="s">
-        <v>345</v>
-      </c>
-      <c r="I429">
-        <v>0</v>
-      </c>
-      <c r="J429">
-        <v>0</v>
-      </c>
-      <c r="K429" t="s">
-        <v>864</v>
-      </c>
-    </row>
-    <row r="430" spans="1:11">
-      <c r="A430">
-        <v>1491</v>
-      </c>
-      <c r="B430" t="s">
-        <v>871</v>
-      </c>
-      <c r="C430" t="s">
-        <v>21</v>
-      </c>
-      <c r="D430"/>
-      <c r="E430" t="s">
-        <v>72</v>
-      </c>
-      <c r="F430" t="s">
-        <v>118</v>
-      </c>
-      <c r="G430" t="s">
-        <v>126</v>
-      </c>
-      <c r="H430" t="s">
-        <v>873</v>
-      </c>
-      <c r="I430">
-        <v>0</v>
-      </c>
-      <c r="J430">
-        <v>0</v>
-      </c>
-      <c r="K430" t="s">
-        <v>864</v>
-      </c>
-    </row>
-    <row r="431" spans="1:11">
-      <c r="A431">
-        <v>1491</v>
-      </c>
-      <c r="B431" t="s">
-        <v>871</v>
-      </c>
-      <c r="C431" t="s">
-        <v>24</v>
-      </c>
-      <c r="D431"/>
-      <c r="E431" t="s">
-        <v>72</v>
-      </c>
-      <c r="F431" t="s">
-        <v>118</v>
-      </c>
-      <c r="G431" t="s">
-        <v>874</v>
-      </c>
-      <c r="H431" t="s">
-        <v>868</v>
-      </c>
-      <c r="I431">
-        <v>0</v>
-      </c>
-      <c r="J431">
-        <v>0</v>
-      </c>
-      <c r="K431" t="s">
-        <v>864</v>
-      </c>
-    </row>
-    <row r="432" spans="1:11">
-      <c r="A432">
-        <v>1491</v>
-      </c>
-      <c r="B432" t="s">
-        <v>871</v>
-      </c>
-      <c r="C432" t="s">
-        <v>27</v>
-      </c>
-      <c r="D432"/>
-      <c r="E432" t="s">
-        <v>72</v>
-      </c>
-      <c r="F432" t="s">
-        <v>118</v>
-      </c>
-      <c r="G432" t="s">
-        <v>875</v>
-      </c>
-      <c r="H432" t="s">
-        <v>876</v>
-      </c>
-      <c r="I432">
-        <v>0</v>
-      </c>
-      <c r="J432">
-        <v>0</v>
-      </c>
-      <c r="K432" t="s">
-        <v>864</v>
+        <v>843</v>
       </c>
     </row>
   </sheetData>
